--- a/PolishBrands.xlsx
+++ b/PolishBrands.xlsx
@@ -4,45 +4,54 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="11700"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Brands</t>
   </si>
   <si>
-    <t>karmi</t>
-  </si>
-  <si>
-    <t>somersby</t>
-  </si>
-  <si>
-    <t>lech</t>
-  </si>
-  <si>
-    <t>club mate</t>
-  </si>
-  <si>
-    <t>podpiwek</t>
-  </si>
-  <si>
-    <t>warka</t>
-  </si>
-  <si>
-    <t>redds</t>
-  </si>
-  <si>
-    <t>nestea</t>
+    <t>dr_pepper</t>
+  </si>
+  <si>
+    <t>capri_sun</t>
+  </si>
+  <si>
+    <t>coke</t>
+  </si>
+  <si>
+    <t>evian</t>
+  </si>
+  <si>
+    <t>fanta</t>
+  </si>
+  <si>
+    <t>lucozade</t>
+  </si>
+  <si>
+    <t>redbull</t>
+  </si>
+  <si>
+    <t>sprite</t>
+  </si>
+  <si>
+    <t>tropicana</t>
+  </si>
+  <si>
+    <t>vinto</t>
+  </si>
+  <si>
+    <t>volvic</t>
   </si>
 </sst>
 </file>
@@ -390,11 +399,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -408,17 +415,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -444,6 +451,21 @@
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
